--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T14:21:23-04:00</t>
+    <t>2023-04-28T13:01:52-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T13:01:52-04:00</t>
+    <t>2023-05-05T10:26:54-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T10:26:54-04:00</t>
+    <t>2023-05-11T16:43:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-11T16:43:35-04:00</t>
+    <t>2023-05-17T15:26:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-17T15:26:12-04:00</t>
+    <t>2023-05-23T11:50:31-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-23T11:50:31-04:00</t>
+    <t>2023-05-26T16:04:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-26T16:04:32-04:00</t>
+    <t>2023-05-30T15:29:53-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T15:29:53-04:00</t>
+    <t>2023-06-08T09:02:09-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T09:02:09-04:00</t>
+    <t>2023-06-08T10:27:07-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T10:27:07-04:00</t>
+    <t>2023-06-09T08:59:53-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-09T08:59:53-04:00</t>
+    <t>2023-06-26T13:45:18-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T13:45:18-04:00</t>
+    <t>2023-06-26T14:02:38-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T14:02:38-04:00</t>
+    <t>2023-06-27T11:58:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T11:58:55-04:00</t>
+    <t>2023-06-27T12:07:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T12:07:05-04:00</t>
+    <t>2023-06-27T13:18:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T13:18:32-04:00</t>
+    <t>2023-06-27T14:37:57-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T14:37:57-04:00</t>
+    <t>2023-06-27T14:58:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-04T05:55:31+00:00</t>
+    <t>2023-07-07T14:27:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-07T14:27:15+00:00</t>
+    <t>2023-07-07T14:44:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-07T14:44:27+00:00</t>
+    <t>2023-07-07T14:51:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T16:10:46-04:00</t>
+    <t>2023-07-25T13:28:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-25T13:28:49-04:00</t>
+    <t>2023-07-28T14:17:54-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T14:17:54-04:00</t>
+    <t>2023-08-01T11:06:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-01T11:06:47-04:00</t>
+    <t>2023-08-03T16:45:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T16:45:03-04:00</t>
+    <t>2023-08-04T11:46:30-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T11:46:30-04:00</t>
+    <t>2023-08-04T15:04:45-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T15:04:45-04:00</t>
+    <t>2023-08-08T14:12:31-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-08T14:12:31-04:00</t>
+    <t>2023-08-10T15:12:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T16:37:06+00:00</t>
+    <t>2023-08-16T17:53:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T17:53:24+00:00</t>
+    <t>2023-08-16T18:12:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T18:12:30+00:00</t>
+    <t>2023-08-16T22:53:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T22:53:49+00:00</t>
+    <t>2023-08-16T23:37:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-21T16:52:35-04:00</t>
+    <t>2023-08-21T17:33:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="331">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T05:01:43+00:00</t>
+    <t>2023-08-29T20:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -137,6 +137,10 @@
   </si>
   <si>
     <t>A type of a manufactured item that is used in the provision of healthcare without being substantially changed through that activity. The device may be a medical or non-medical device.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Device.id</t>
@@ -1497,7 +1501,7 @@
         <v>35</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>28</v>
@@ -1511,10 +1515,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1525,7 +1529,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>35</v>
@@ -1534,19 +1538,19 @@
         <v>35</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1596,13 +1600,13 @@
         <v>35</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>35</v>
@@ -1622,10 +1626,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1636,7 +1640,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>35</v>
@@ -1645,16 +1649,16 @@
         <v>35</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1705,19 +1709,19 @@
         <v>35</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>35</v>
@@ -1731,10 +1735,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1745,28 +1749,28 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1816,19 +1820,19 @@
         <v>35</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>35</v>
@@ -1842,10 +1846,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1856,7 +1860,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>35</v>
@@ -1868,16 +1872,16 @@
         <v>35</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1903,13 +1907,13 @@
         <v>35</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>35</v>
@@ -1927,19 +1931,19 @@
         <v>35</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>35</v>
@@ -1953,21 +1957,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>35</v>
@@ -1979,16 +1983,16 @@
         <v>35</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2038,22 +2042,22 @@
         <v>35</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>35</v>
@@ -2064,14 +2068,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2090,16 +2094,16 @@
         <v>35</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2149,7 +2153,7 @@
         <v>35</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -2164,7 +2168,7 @@
         <v>35</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>35</v>
@@ -2175,14 +2179,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2201,16 +2205,16 @@
         <v>35</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2260,7 +2264,7 @@
         <v>35</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -2272,10 +2276,10 @@
         <v>35</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>35</v>
@@ -2286,14 +2290,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2306,25 +2310,25 @@
         <v>35</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>35</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>35</v>
@@ -2373,7 +2377,7 @@
         <v>35</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2385,10 +2389,10 @@
         <v>35</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>35</v>
@@ -2399,10 +2403,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2425,16 +2429,16 @@
         <v>35</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2484,7 +2488,7 @@
         <v>35</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -2496,24 +2500,24 @@
         <v>35</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2524,7 +2528,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>35</v>
@@ -2536,13 +2540,13 @@
         <v>35</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2593,19 +2597,19 @@
         <v>35</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>35</v>
@@ -2619,10 +2623,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2642,19 +2646,19 @@
         <v>35</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2704,7 +2708,7 @@
         <v>35</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
@@ -2716,13 +2720,13 @@
         <v>35</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>35</v>
@@ -2730,10 +2734,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2744,7 +2748,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>35</v>
@@ -2756,13 +2760,13 @@
         <v>35</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2813,13 +2817,13 @@
         <v>35</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>35</v>
@@ -2828,7 +2832,7 @@
         <v>35</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>35</v>
@@ -2839,14 +2843,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2865,16 +2869,16 @@
         <v>35</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2924,7 +2928,7 @@
         <v>35</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
@@ -2936,10 +2940,10 @@
         <v>35</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>35</v>
@@ -2950,14 +2954,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -2970,25 +2974,25 @@
         <v>35</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>35</v>
@@ -3037,7 +3041,7 @@
         <v>35</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
@@ -3049,10 +3053,10 @@
         <v>35</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>35</v>
@@ -3063,21 +3067,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>35</v>
@@ -3086,16 +3090,16 @@
         <v>35</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3146,47 +3150,47 @@
         <v>35</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>35</v>
@@ -3198,13 +3202,13 @@
         <v>35</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3255,36 +3259,36 @@
         <v>35</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3295,7 +3299,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>35</v>
@@ -3307,17 +3311,17 @@
         <v>35</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>35</v>
@@ -3366,22 +3370,22 @@
         <v>35</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>35</v>
@@ -3392,21 +3396,21 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>35</v>
@@ -3415,19 +3419,19 @@
         <v>35</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3477,47 +3481,47 @@
         <v>35</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>35</v>
@@ -3526,19 +3530,19 @@
         <v>35</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3588,36 +3592,36 @@
         <v>35</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3628,7 +3632,7 @@
         <v>36</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>35</v>
@@ -3640,17 +3644,17 @@
         <v>35</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>35</v>
@@ -3675,13 +3679,13 @@
         <v>35</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>35</v>
@@ -3699,22 +3703,22 @@
         <v>35</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>35</v>
@@ -3725,10 +3729,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3739,28 +3743,28 @@
         <v>36</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3786,13 +3790,13 @@
         <v>35</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>35</v>
@@ -3810,25 +3814,25 @@
         <v>35</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>35</v>
@@ -3836,10 +3840,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3862,13 +3866,13 @@
         <v>35</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3895,13 +3899,13 @@
         <v>35</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>35</v>
@@ -3919,7 +3923,7 @@
         <v>35</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
@@ -3931,13 +3935,13 @@
         <v>35</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>35</v>
@@ -3945,21 +3949,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>35</v>
@@ -3971,16 +3975,16 @@
         <v>35</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4030,36 +4034,36 @@
         <v>35</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4070,7 +4074,7 @@
         <v>36</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>35</v>
@@ -4082,13 +4086,13 @@
         <v>35</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4139,36 +4143,36 @@
         <v>35</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4179,7 +4183,7 @@
         <v>36</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>35</v>
@@ -4191,13 +4195,13 @@
         <v>35</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4248,36 +4252,36 @@
         <v>35</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4288,7 +4292,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>35</v>
@@ -4300,13 +4304,13 @@
         <v>35</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4357,36 +4361,36 @@
         <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4397,7 +4401,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>35</v>
@@ -4409,13 +4413,13 @@
         <v>35</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4466,36 +4470,36 @@
         <v>35</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4506,7 +4510,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>35</v>
@@ -4518,16 +4522,16 @@
         <v>35</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4577,25 +4581,25 @@
         <v>35</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>35</v>
@@ -4603,10 +4607,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4614,10 +4618,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>35</v>
@@ -4629,13 +4633,13 @@
         <v>35</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4686,7 +4690,7 @@
         <v>35</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
@@ -4698,7 +4702,7 @@
         <v>35</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>35</v>
@@ -4712,10 +4716,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4726,7 +4730,7 @@
         <v>36</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>35</v>
@@ -4738,13 +4742,13 @@
         <v>35</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4795,13 +4799,13 @@
         <v>35</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>35</v>
@@ -4810,7 +4814,7 @@
         <v>35</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>35</v>
@@ -4821,14 +4825,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4847,16 +4851,16 @@
         <v>35</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4906,7 +4910,7 @@
         <v>35</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
@@ -4918,10 +4922,10 @@
         <v>35</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>35</v>
@@ -4932,14 +4936,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -4952,25 +4956,25 @@
         <v>35</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>35</v>
@@ -5019,7 +5023,7 @@
         <v>35</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
@@ -5031,10 +5035,10 @@
         <v>35</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>35</v>
@@ -5045,21 +5049,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>35</v>
@@ -5071,13 +5075,13 @@
         <v>35</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5128,19 +5132,19 @@
         <v>35</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>35</v>
@@ -5154,10 +5158,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5165,10 +5169,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>35</v>
@@ -5180,13 +5184,13 @@
         <v>35</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5213,13 +5217,13 @@
         <v>35</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>35</v>
@@ -5237,25 +5241,25 @@
         <v>35</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>35</v>
@@ -5263,10 +5267,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5277,7 +5281,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>35</v>
@@ -5289,13 +5293,13 @@
         <v>35</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5346,25 +5350,25 @@
         <v>35</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>35</v>
@@ -5372,10 +5376,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5386,7 +5390,7 @@
         <v>36</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>35</v>
@@ -5398,16 +5402,16 @@
         <v>35</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5457,25 +5461,25 @@
         <v>35</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>35</v>
@@ -5483,10 +5487,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5497,7 +5501,7 @@
         <v>36</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>35</v>
@@ -5509,13 +5513,13 @@
         <v>35</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5542,13 +5546,13 @@
         <v>35</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>35</v>
@@ -5566,19 +5570,19 @@
         <v>35</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>35</v>
@@ -5592,10 +5596,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5618,13 +5622,13 @@
         <v>35</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5675,7 +5679,7 @@
         <v>35</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
@@ -5687,7 +5691,7 @@
         <v>35</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>35</v>
@@ -5701,10 +5705,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5715,7 +5719,7 @@
         <v>36</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>35</v>
@@ -5727,13 +5731,13 @@
         <v>35</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5784,13 +5788,13 @@
         <v>35</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>35</v>
@@ -5799,7 +5803,7 @@
         <v>35</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>35</v>
@@ -5810,14 +5814,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -5836,16 +5840,16 @@
         <v>35</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -5895,7 +5899,7 @@
         <v>35</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
@@ -5907,10 +5911,10 @@
         <v>35</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>35</v>
@@ -5921,14 +5925,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -5941,25 +5945,25 @@
         <v>35</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>35</v>
@@ -6008,7 +6012,7 @@
         <v>35</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
@@ -6020,10 +6024,10 @@
         <v>35</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>35</v>
@@ -6034,21 +6038,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>35</v>
@@ -6060,13 +6064,13 @@
         <v>35</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6117,19 +6121,19 @@
         <v>35</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>35</v>
@@ -6143,10 +6147,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6157,7 +6161,7 @@
         <v>36</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>35</v>
@@ -6169,13 +6173,13 @@
         <v>35</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6226,25 +6230,25 @@
         <v>35</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>35</v>
@@ -6252,10 +6256,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6278,13 +6282,13 @@
         <v>35</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6335,7 +6339,7 @@
         <v>35</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
@@ -6347,7 +6351,7 @@
         <v>35</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>35</v>
@@ -6361,10 +6365,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6375,7 +6379,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>35</v>
@@ -6387,13 +6391,13 @@
         <v>35</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6444,13 +6448,13 @@
         <v>35</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>35</v>
@@ -6459,7 +6463,7 @@
         <v>35</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>35</v>
@@ -6470,14 +6474,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6496,16 +6500,16 @@
         <v>35</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6555,7 +6559,7 @@
         <v>35</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
@@ -6567,10 +6571,10 @@
         <v>35</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>35</v>
@@ -6581,14 +6585,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -6601,25 +6605,25 @@
         <v>35</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>35</v>
@@ -6668,7 +6672,7 @@
         <v>35</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
@@ -6680,10 +6684,10 @@
         <v>35</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>35</v>
@@ -6694,21 +6698,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>35</v>
@@ -6720,13 +6724,13 @@
         <v>35</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6777,19 +6781,19 @@
         <v>35</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>35</v>
@@ -6803,10 +6807,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6817,7 +6821,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>35</v>
@@ -6829,13 +6833,13 @@
         <v>35</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6886,25 +6890,25 @@
         <v>35</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>35</v>
@@ -6912,10 +6916,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6923,10 +6927,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>35</v>
@@ -6938,13 +6942,13 @@
         <v>35</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6995,19 +6999,19 @@
         <v>35</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>35</v>
@@ -7021,10 +7025,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7047,13 +7051,13 @@
         <v>35</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7104,7 +7108,7 @@
         <v>35</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
@@ -7116,7 +7120,7 @@
         <v>35</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>35</v>
@@ -7130,10 +7134,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7144,7 +7148,7 @@
         <v>36</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>35</v>
@@ -7156,13 +7160,13 @@
         <v>35</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7213,13 +7217,13 @@
         <v>35</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>35</v>
@@ -7228,7 +7232,7 @@
         <v>35</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>35</v>
@@ -7239,14 +7243,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7265,16 +7269,16 @@
         <v>35</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7324,7 +7328,7 @@
         <v>35</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
@@ -7336,10 +7340,10 @@
         <v>35</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>35</v>
@@ -7350,14 +7354,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7370,25 +7374,25 @@
         <v>35</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>35</v>
@@ -7437,7 +7441,7 @@
         <v>35</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
@@ -7449,10 +7453,10 @@
         <v>35</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>35</v>
@@ -7463,10 +7467,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7474,10 +7478,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>35</v>
@@ -7489,13 +7493,13 @@
         <v>35</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7546,19 +7550,19 @@
         <v>35</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>35</v>
@@ -7572,10 +7576,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7598,13 +7602,13 @@
         <v>35</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7655,7 +7659,7 @@
         <v>35</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
@@ -7667,7 +7671,7 @@
         <v>35</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>35</v>
@@ -7681,10 +7685,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7707,13 +7711,13 @@
         <v>35</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7764,7 +7768,7 @@
         <v>35</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -7776,7 +7780,7 @@
         <v>35</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>35</v>
@@ -7790,10 +7794,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7804,7 +7808,7 @@
         <v>36</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>35</v>
@@ -7816,17 +7820,17 @@
         <v>35</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>35</v>
@@ -7875,25 +7879,25 @@
         <v>35</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>35</v>
@@ -7901,10 +7905,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7915,7 +7919,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>35</v>
@@ -7927,13 +7931,13 @@
         <v>35</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -7984,25 +7988,25 @@
         <v>35</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>35</v>
@@ -8010,10 +8014,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8036,16 +8040,16 @@
         <v>35</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8095,7 +8099,7 @@
         <v>35</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
@@ -8107,13 +8111,13 @@
         <v>35</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>35</v>
@@ -8121,10 +8125,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8135,7 +8139,7 @@
         <v>36</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>35</v>
@@ -8147,17 +8151,17 @@
         <v>35</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>35</v>
@@ -8206,25 +8210,25 @@
         <v>35</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>35</v>
@@ -8232,10 +8236,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8246,7 +8250,7 @@
         <v>36</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>35</v>
@@ -8258,16 +8262,16 @@
         <v>35</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8317,25 +8321,25 @@
         <v>35</v>
       </c>
       <c r="AF63" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>35</v>
@@ -8343,10 +8347,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8369,13 +8373,13 @@
         <v>35</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8426,7 +8430,7 @@
         <v>35</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>36</v>
@@ -8438,10 +8442,10 @@
         <v>35</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>35</v>
@@ -8452,10 +8456,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8475,16 +8479,16 @@
         <v>35</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8535,7 +8539,7 @@
         <v>35</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
@@ -8547,10 +8551,10 @@
         <v>35</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>35</v>
@@ -8561,10 +8565,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8575,7 +8579,7 @@
         <v>36</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>35</v>
@@ -8587,13 +8591,13 @@
         <v>35</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8644,19 +8648,19 @@
         <v>35</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>35</v>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-29T20:22:11+00:00</t>
+    <t>2023-09-15T16:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T16:24:43+00:00</t>
+    <t>2023-10-04T03:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T03:12:19+00:00</t>
+    <t>2023-10-04T15:51:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T14:38:18+00:00</t>
+    <t>2024-02-07T17:12:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T20:15:52+00:00</t>
+    <t>2024-03-25T20:47:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T20:47:37+00:00</t>
+    <t>2024-03-25T21:26:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T21:26:55+00:00</t>
+    <t>2024-03-25T22:06:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:06:12+00:00</t>
+    <t>2024-03-25T22:18:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:18:18+00:00</t>
+    <t>2024-03-25T22:49:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:49:56+00:00</t>
+    <t>2024-03-26T03:52:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T03:52:16+00:00</t>
+    <t>2024-03-26T20:10:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T20:10:39+00:00</t>
+    <t>2024-04-15T18:23:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>KinD Lab (http://fhir.kindlab.sickkids.ca)</t>
   </si>
   <si>
     <t>Description</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-15T18:23:02+00:00</t>
+    <t>2024-04-16T16:30:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://voicecollab.ai/fhir/StructureDefinition/vbai-waveform-device</t>
+    <t>https://kind-lab.github.io/vbai-fhir/StructureDefinition/vbai-waveform-device</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T16:30:12+00:00</t>
+    <t>2024-05-13T19:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-waveform-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T19:43:18+00:00</t>
+    <t>2024-05-29T18:31:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
